--- a/GameList.xlsx
+++ b/GameList.xlsx
@@ -179,7 +179,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="微軟正黑體"/>
@@ -207,6 +207,22 @@
     <font>
       <sz val="14"/>
       <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <color rgb="FFC9211E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <color rgb="FFC9211E"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="136"/>
     </font>
@@ -216,14 +232,6 @@
       <color rgb="FFC9211E"/>
       <name val="MingLiU"/>
       <family val="0"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="14"/>
-      <color rgb="FFC9211E"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <charset val="136"/>
     </font>
     <font>
@@ -322,7 +330,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -347,23 +355,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -588,10 +600,10 @@
   </sheetPr>
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.03515625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -618,513 +630,513 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" s="12" customFormat="true" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+    <row r="2" s="13" customFormat="true" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="9" t="n">
         <v>43</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="9" t="n">
+      <c r="E2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="10" t="n">
         <v>2000000021</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="8" t="n">
+      <c r="L2" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="M2" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="11" t="s">
+      <c r="M2" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" s="12" customFormat="true" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+    <row r="3" s="13" customFormat="true" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="9" t="n">
         <v>43</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="9" t="n">
+      <c r="E3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="10" t="n">
         <v>2000000021</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="G3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="8" t="n">
+      <c r="L3" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="M3" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="11" t="s">
+      <c r="M3" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" s="12" customFormat="true" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+    <row r="4" s="13" customFormat="true" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="9" t="n">
         <v>43</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="9" t="n">
+      <c r="E4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="10" t="n">
         <v>2000000021</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="G4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="8" t="n">
+      <c r="L4" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="M4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="11" t="s">
+      <c r="M4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" s="12" customFormat="true" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+    <row r="5" s="13" customFormat="true" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="9" t="n">
         <v>43</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="9" t="n">
+      <c r="E5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="10" t="n">
         <v>2000000021</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="G5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="8" t="n">
+      <c r="L5" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="M5" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="11" t="s">
+      <c r="M5" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" s="12" customFormat="true" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+    <row r="6" s="13" customFormat="true" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="D6" s="8" t="n">
+      <c r="D6" s="9" t="n">
         <v>43</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="9" t="n">
+      <c r="E6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="10" t="n">
         <v>2000000021</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="G6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="8" t="n">
+      <c r="L6" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="M6" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="11" t="s">
+      <c r="M6" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" s="12" customFormat="true" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+    <row r="7" s="13" customFormat="true" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="8" t="n">
+      <c r="C7" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="D7" s="8" t="n">
+      <c r="D7" s="9" t="n">
         <v>43</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="9" t="n">
+      <c r="E7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="10" t="n">
         <v>2000000021</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="G7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="8" t="n">
+      <c r="L7" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="M7" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="11" t="s">
+      <c r="M7" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" s="12" customFormat="true" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+    <row r="8" s="13" customFormat="true" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="8" t="n">
+      <c r="C8" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="D8" s="8" t="n">
+      <c r="D8" s="9" t="n">
         <v>43</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="9" t="n">
+      <c r="E8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="10" t="n">
         <v>2000000021</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="G8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="L8" s="8" t="n">
+      <c r="L8" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="M8" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="11" t="s">
+      <c r="M8" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" s="12" customFormat="true" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+    <row r="9" s="13" customFormat="true" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="8" t="n">
+      <c r="C9" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="D9" s="8" t="n">
+      <c r="D9" s="9" t="n">
         <v>43</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="9" t="n">
+      <c r="E9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="10" t="n">
         <v>2000000021</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="6" t="s">
+      <c r="G9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="L9" s="8" t="n">
+      <c r="L9" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="M9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="11" t="s">
+      <c r="M9" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" s="12" customFormat="true" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+    <row r="10" s="13" customFormat="true" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="8" t="n">
+      <c r="C10" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="D10" s="8" t="n">
+      <c r="D10" s="9" t="n">
         <v>43</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="9" t="n">
+      <c r="E10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="10" t="n">
         <v>2000000021</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="6" t="s">
+      <c r="G10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="K10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="8" t="n">
+      <c r="L10" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="M10" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="11" t="s">
+      <c r="M10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" s="12" customFormat="true" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
+    <row r="11" s="13" customFormat="true" ht="20.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="8" t="n">
+      <c r="C11" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="D11" s="8" t="n">
+      <c r="D11" s="9" t="n">
         <v>43</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="9" t="n">
+      <c r="E11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="10" t="n">
         <v>2000000021</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="G11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="L11" s="8" t="n">
+      <c r="L11" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="M11" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" s="11" t="s">
+      <c r="M11" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="12" t="s">
         <v>21</v>
       </c>
     </row>
